--- a/UITstAuto/src/main/java/com/ui/qa/testdata/test-data.xlsx
+++ b/UITstAuto/src/main/java/com/ui/qa/testdata/test-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad.Zameer\eclipse-workspace\UITstAuto\src\main\java\com\ui\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Selenium Webdriver Template\Selenium-Webdriver\UITstAuto\src\main\java\com\ui\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192D4FA8-5579-4022-ADA3-43C86175AE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35A09EB-9CF0-4E57-81A0-D087E810CF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05C0BF02-E1B9-4BB1-8B1F-B41EF190152B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5BC379-2B37-4167-8EF8-F08C02182340}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,6 +438,14 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/UITstAuto/src/main/java/com/ui/qa/testdata/test-data.xlsx
+++ b/UITstAuto/src/main/java/com/ui/qa/testdata/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Selenium Webdriver Template\Selenium-Webdriver\UITstAuto\src\main\java\com\ui\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35A09EB-9CF0-4E57-81A0-D087E810CF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34005B61-1E62-4803-9E5B-839AB10872F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05C0BF02-E1B9-4BB1-8B1F-B41EF190152B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5BC379-2B37-4167-8EF8-F08C02182340}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,14 +438,6 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/UITstAuto/src/main/java/com/ui/qa/testdata/test-data.xlsx
+++ b/UITstAuto/src/main/java/com/ui/qa/testdata/test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Selenium Webdriver Template\Selenium-Webdriver\UITstAuto\src\main\java\com\ui\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34005B61-1E62-4803-9E5B-839AB10872F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F9705-7045-4AC3-8E72-220B6A7E79F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05C0BF02-E1B9-4BB1-8B1F-B41EF190152B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05C0BF02-E1B9-4BB1-8B1F-B41EF190152B}"/>
   </bookViews>
   <sheets>
     <sheet name="test sheet 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5BC379-2B37-4167-8EF8-F08C02182340}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,11 +433,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/UITstAuto/src/main/java/com/ui/qa/testdata/test-data.xlsx
+++ b/UITstAuto/src/main/java/com/ui/qa/testdata/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Selenium Webdriver Template\Selenium-Webdriver\UITstAuto\src\main\java\com\ui\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F9705-7045-4AC3-8E72-220B6A7E79F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF780992-AC5A-4715-9C83-3E338AEC105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05C0BF02-E1B9-4BB1-8B1F-B41EF190152B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5BC379-2B37-4167-8EF8-F08C02182340}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,6 +446,14 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
